--- a/Grape_Export.xlsx
+++ b/Grape_Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iricj\Documents\GitHub\grapes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2383B63-0C35-4133-B41C-AF568CA1B38B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C07EB9D-7372-4529-86A0-6BD9E0E63A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -4925,6 +4925,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4953,20 +4967,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4981,7 +4981,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EA76C1B-E698-4F5E-ACD7-6D367E494F38}" name="Table1" displayName="Table1" ref="A1:H788" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EA76C1B-E698-4F5E-ACD7-6D367E494F38}" name="Table1" displayName="Table1" ref="A1:H788" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:H788" xr:uid="{A9D5A148-B3F6-45B5-BE5E-1CAF50323FEB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E3610CE0-4159-4A56-8473-E56CB7541182}" name="Varietal"/>
@@ -5320,9 +5320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5425,9 +5423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5614,9 +5610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H788"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
